--- a/choice_set/novel_choiceset_creation/initialchoiceset.xlsx
+++ b/choice_set/novel_choiceset_creation/initialchoiceset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sokolhessner/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sokolhessner/Documents/gitrepos/clasedecisiontask/choice_set/novel_choiceset_creation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C95B274-BC37-E84D-B66D-A01950A8DE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45D72EE-9FE7-B54C-8536-9CF17C1B764A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{39B1200C-5069-4046-B8A1-7519D24964A0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="37020" windowHeight="25720" activeTab="4" xr2:uid="{39B1200C-5069-4046-B8A1-7519D24964A0}"/>
   </bookViews>
   <sheets>
     <sheet name="GainLossGeneration" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Choiceset" sheetId="6" r:id="rId5"/>
     <sheet name="Unused - Brainstorming" sheetId="1" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -5096,10 +5096,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>GainOnlyGeneration!$P$2:$P$31</c:f>
+              <c:f>GainOnlyGeneration!$P$2:$P$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -5189,16 +5189,31 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1.5730829761119478</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>GainOnlyGeneration!$Q$2:$Q$31</c:f>
+              <c:f>GainOnlyGeneration!$Q$2:$Q$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0.42862199142653634</c:v>
                 </c:pt>
@@ -5287,6 +5302,21 @@
                   <c:v>9.9525657215325225</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -5574,10 +5604,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>GainOnlyGeneration!$P$2:$P$31</c:f>
+              <c:f>GainOnlyGeneration!$P$2:$P$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -5667,16 +5697,31 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1.5730829761119478</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>GainOnlyGeneration!$R$2:$R$31</c:f>
+              <c:f>GainOnlyGeneration!$R$2:$R$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0.21431099571326817</c:v>
                 </c:pt>
@@ -5766,6 +5811,21 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.6356943754306037</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.13333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15142,7 +15202,7 @@
         <v>-1.1111111111111112</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N31" si="2">H4</f>
+        <f t="shared" ref="N4" si="2">H4</f>
         <v>-1.1111111111111112</v>
       </c>
       <c r="P4">
@@ -15185,7 +15245,7 @@
         <v>-1</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:O31" si="4">H5</f>
+        <f t="shared" ref="O5" si="4">H5</f>
         <v>-1</v>
       </c>
       <c r="P5">
@@ -15221,7 +15281,7 @@
         <v>-0.90909090909090917</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6:N31" si="5">H6</f>
+        <f t="shared" ref="N6" si="5">H6</f>
         <v>-0.90909090909090917</v>
       </c>
       <c r="P6">
@@ -15251,7 +15311,7 @@
         <v>-0.83333333333333337</v>
       </c>
       <c r="O7">
-        <f t="shared" ref="O7:O31" si="6">H7</f>
+        <f t="shared" ref="O7" si="6">H7</f>
         <v>-0.83333333333333337</v>
       </c>
       <c r="P7">
@@ -15288,7 +15348,7 @@
         <v>-0.76923076923076916</v>
       </c>
       <c r="N8">
-        <f t="shared" ref="N8:N31" si="7">H8</f>
+        <f t="shared" ref="N8" si="7">H8</f>
         <v>-0.76923076923076916</v>
       </c>
       <c r="R8">
@@ -15315,7 +15375,7 @@
         <v>-0.71428571428571419</v>
       </c>
       <c r="O9">
-        <f t="shared" ref="O9:O31" si="8">H9</f>
+        <f t="shared" ref="O9" si="8">H9</f>
         <v>-0.71428571428571419</v>
       </c>
       <c r="R9">
@@ -15342,7 +15402,7 @@
         <v>-0.66666666666666652</v>
       </c>
       <c r="N10">
-        <f t="shared" ref="N10:N31" si="9">H10</f>
+        <f t="shared" ref="N10" si="9">H10</f>
         <v>-0.66666666666666652</v>
       </c>
       <c r="P10" t="s">
@@ -15372,7 +15432,7 @@
         <v>-0.62499999999999989</v>
       </c>
       <c r="O11">
-        <f t="shared" ref="O11:O31" si="10">H11</f>
+        <f t="shared" ref="O11" si="10">H11</f>
         <v>-0.62499999999999989</v>
       </c>
       <c r="R11">
@@ -15399,7 +15459,7 @@
         <v>-0.58823529411764697</v>
       </c>
       <c r="N12">
-        <f t="shared" ref="N12:N31" si="11">H12</f>
+        <f t="shared" ref="N12" si="11">H12</f>
         <v>-0.58823529411764697</v>
       </c>
       <c r="R12">
@@ -15426,7 +15486,7 @@
         <v>-0.55555555555555536</v>
       </c>
       <c r="O13">
-        <f t="shared" ref="O13:O31" si="12">H13</f>
+        <f t="shared" ref="O13" si="12">H13</f>
         <v>-0.55555555555555536</v>
       </c>
       <c r="R13">
@@ -15453,7 +15513,7 @@
         <v>-0.52631578947368407</v>
       </c>
       <c r="N14">
-        <f t="shared" ref="N14:N31" si="13">H14</f>
+        <f t="shared" ref="N14" si="13">H14</f>
         <v>-0.52631578947368407</v>
       </c>
       <c r="R14">
@@ -15480,7 +15540,7 @@
         <v>-0.49999999999999989</v>
       </c>
       <c r="O15">
-        <f t="shared" ref="O15:O31" si="14">H15</f>
+        <f t="shared" ref="O15" si="14">H15</f>
         <v>-0.49999999999999989</v>
       </c>
       <c r="R15">
@@ -15507,7 +15567,7 @@
         <v>-0.47619047619047605</v>
       </c>
       <c r="N16">
-        <f t="shared" ref="N16:N31" si="16">H16</f>
+        <f t="shared" ref="N16" si="16">H16</f>
         <v>-0.47619047619047605</v>
       </c>
       <c r="R16">
@@ -15534,7 +15594,7 @@
         <v>-0.45454545454545442</v>
       </c>
       <c r="O17">
-        <f t="shared" ref="O17:O31" si="17">H17</f>
+        <f t="shared" ref="O17" si="17">H17</f>
         <v>-0.45454545454545442</v>
       </c>
       <c r="R17">
@@ -15561,7 +15621,7 @@
         <v>-0.43478260869565205</v>
       </c>
       <c r="N18">
-        <f t="shared" ref="N18:N31" si="18">H18</f>
+        <f t="shared" ref="N18" si="18">H18</f>
         <v>-0.43478260869565205</v>
       </c>
       <c r="R18">
@@ -15588,7 +15648,7 @@
         <v>-0.41666666666666652</v>
       </c>
       <c r="O19">
-        <f t="shared" ref="O19:O31" si="19">H19</f>
+        <f t="shared" ref="O19" si="19">H19</f>
         <v>-0.41666666666666652</v>
       </c>
       <c r="R19">
@@ -15615,7 +15675,7 @@
         <v>-0.39999999999999986</v>
       </c>
       <c r="N20">
-        <f t="shared" ref="N20:N31" si="20">H20</f>
+        <f t="shared" ref="N20" si="20">H20</f>
         <v>-0.39999999999999986</v>
       </c>
       <c r="R20">
@@ -15642,7 +15702,7 @@
         <v>-0.35714285714285704</v>
       </c>
       <c r="O21">
-        <f t="shared" ref="O21:O31" si="22">H21</f>
+        <f t="shared" ref="O21" si="22">H21</f>
         <v>-0.35714285714285704</v>
       </c>
       <c r="R21">
@@ -15669,7 +15729,7 @@
         <v>-0.32258064516129026</v>
       </c>
       <c r="N22">
-        <f t="shared" ref="N22:N31" si="23">H22</f>
+        <f t="shared" ref="N22" si="23">H22</f>
         <v>-0.32258064516129026</v>
       </c>
       <c r="R22">
@@ -15696,7 +15756,7 @@
         <v>-0.29411764705882348</v>
       </c>
       <c r="O23">
-        <f t="shared" ref="O23:O31" si="24">H23</f>
+        <f t="shared" ref="O23" si="24">H23</f>
         <v>-0.29411764705882348</v>
       </c>
       <c r="R23">
@@ -15723,7 +15783,7 @@
         <v>-0.27027027027027023</v>
       </c>
       <c r="N24">
-        <f t="shared" ref="N24:N31" si="25">H24</f>
+        <f t="shared" ref="N24" si="25">H24</f>
         <v>-0.27027027027027023</v>
       </c>
       <c r="R24">
@@ -15750,7 +15810,7 @@
         <v>-0.25</v>
       </c>
       <c r="O25">
-        <f t="shared" ref="O25:O31" si="26">H25</f>
+        <f t="shared" ref="O25" si="26">H25</f>
         <v>-0.25</v>
       </c>
       <c r="R25">
@@ -15777,7 +15837,7 @@
         <v>-0.21739130434782611</v>
       </c>
       <c r="N26">
-        <f t="shared" ref="N26:N31" si="28">H26</f>
+        <f t="shared" ref="N26" si="28">H26</f>
         <v>-0.21739130434782611</v>
       </c>
       <c r="R26">
@@ -15804,7 +15864,7 @@
         <v>-0.19230769230769235</v>
       </c>
       <c r="O27">
-        <f t="shared" ref="O27:O31" si="29">H27</f>
+        <f t="shared" ref="O27" si="29">H27</f>
         <v>-0.19230769230769235</v>
       </c>
       <c r="R27">
@@ -15831,7 +15891,7 @@
         <v>-0.17241379310344832</v>
       </c>
       <c r="N28">
-        <f t="shared" ref="N28:N31" si="30">H28</f>
+        <f t="shared" ref="N28" si="30">H28</f>
         <v>-0.17241379310344832</v>
       </c>
       <c r="R28">
@@ -15858,7 +15918,7 @@
         <v>-0.15625000000000003</v>
       </c>
       <c r="O29">
-        <f t="shared" ref="O29:O31" si="31">H29</f>
+        <f t="shared" ref="O29" si="31">H29</f>
         <v>-0.15625000000000003</v>
       </c>
       <c r="R29">
@@ -15885,7 +15945,7 @@
         <v>-0.1428571428571429</v>
       </c>
       <c r="N30">
-        <f t="shared" ref="N30:N31" si="33">H30</f>
+        <f t="shared" ref="N30" si="33">H30</f>
         <v>-0.1428571428571429</v>
       </c>
       <c r="R30">
@@ -17762,10 +17822,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7129CBED-75FE-FE4F-BC90-69ECA6D16CC4}">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:Q31"/>
+      <selection activeCell="P32" sqref="P32:Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17865,7 +17925,7 @@
         <v>7</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R31" si="3">Q3/P3</f>
+        <f t="shared" ref="R3:R36" si="3">Q3/P3</f>
         <v>0.26369151912041178</v>
       </c>
     </row>
@@ -17964,7 +18024,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f>E6+B$3</f>
+        <f t="shared" ref="E7:E25" si="5">E6+B$3</f>
         <v>0.75000000000000022</v>
       </c>
       <c r="M7">
@@ -17992,7 +18052,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <f>E7+B$3</f>
+        <f t="shared" si="5"/>
         <v>0.77000000000000024</v>
       </c>
       <c r="J8">
@@ -18020,7 +18080,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <f>E8+B$3</f>
+        <f t="shared" si="5"/>
         <v>0.79000000000000026</v>
       </c>
       <c r="M9">
@@ -18048,7 +18108,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <f>E9+B$3</f>
+        <f t="shared" si="5"/>
         <v>0.81000000000000028</v>
       </c>
       <c r="J10">
@@ -18076,7 +18136,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f>E10+B$3</f>
+        <f t="shared" si="5"/>
         <v>0.83000000000000029</v>
       </c>
       <c r="M11">
@@ -18104,7 +18164,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <f>E11+B$3</f>
+        <f t="shared" si="5"/>
         <v>0.85000000000000031</v>
       </c>
       <c r="J12">
@@ -18132,7 +18192,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <f>E12+B$3</f>
+        <f t="shared" si="5"/>
         <v>0.87000000000000033</v>
       </c>
       <c r="M13">
@@ -18160,7 +18220,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f>E13+B$3</f>
+        <f t="shared" si="5"/>
         <v>0.89000000000000035</v>
       </c>
       <c r="J14">
@@ -18188,7 +18248,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <f>E14+B$3</f>
+        <f t="shared" si="5"/>
         <v>0.91000000000000036</v>
       </c>
       <c r="M15">
@@ -18216,7 +18276,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <f>E15+B$3</f>
+        <f t="shared" si="5"/>
         <v>0.93000000000000038</v>
       </c>
       <c r="J16">
@@ -18244,7 +18304,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <f>E16+B$3</f>
+        <f t="shared" si="5"/>
         <v>0.9500000000000004</v>
       </c>
       <c r="M17">
@@ -18272,7 +18332,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <f>E17+B$3</f>
+        <f t="shared" si="5"/>
         <v>0.97000000000000042</v>
       </c>
       <c r="J18">
@@ -18300,7 +18360,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <f>E18+B$3</f>
+        <f t="shared" si="5"/>
         <v>0.99000000000000044</v>
       </c>
       <c r="M19">
@@ -18328,7 +18388,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <f>E19+B$3</f>
+        <f t="shared" si="5"/>
         <v>1.0100000000000005</v>
       </c>
       <c r="J20">
@@ -18356,7 +18416,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <f>E20+B$3</f>
+        <f t="shared" si="5"/>
         <v>1.0300000000000005</v>
       </c>
       <c r="M21">
@@ -18384,7 +18444,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <f>E21+B$3</f>
+        <f t="shared" si="5"/>
         <v>1.0500000000000005</v>
       </c>
       <c r="J22">
@@ -18412,7 +18472,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <f>E22+B$3</f>
+        <f t="shared" si="5"/>
         <v>1.0700000000000005</v>
       </c>
       <c r="M23">
@@ -18440,7 +18500,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <f>E23+B$3</f>
+        <f t="shared" si="5"/>
         <v>1.0900000000000005</v>
       </c>
       <c r="J24">
@@ -18468,7 +18528,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <f>E24+B$3</f>
+        <f t="shared" si="5"/>
         <v>1.1100000000000005</v>
       </c>
       <c r="M25">
@@ -18496,7 +18556,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <f t="shared" ref="E26:E27" si="5">E25+B$4</f>
+        <f t="shared" ref="E26:E27" si="6">E25+B$4</f>
         <v>1.1800000000000006</v>
       </c>
       <c r="J26">
@@ -18524,7 +18584,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2500000000000007</v>
       </c>
       <c r="M27">
@@ -18657,6 +18717,66 @@
       <c r="R31">
         <f t="shared" si="3"/>
         <v>0.6356943754306037</v>
+      </c>
+    </row>
+    <row r="32" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="P32">
+        <v>7.5</v>
+      </c>
+      <c r="Q32">
+        <v>6</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="16:18" x14ac:dyDescent="0.2">
+      <c r="P33">
+        <v>5</v>
+      </c>
+      <c r="Q33">
+        <v>5</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="16:18" x14ac:dyDescent="0.2">
+      <c r="P34">
+        <v>9</v>
+      </c>
+      <c r="Q34">
+        <v>9</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="16:18" x14ac:dyDescent="0.2">
+      <c r="P35">
+        <v>15</v>
+      </c>
+      <c r="Q35">
+        <v>2</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="3"/>
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="36" spans="16:18" x14ac:dyDescent="0.2">
+      <c r="P36">
+        <v>9</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="3"/>
+        <v>0.1111111111111111</v>
       </c>
     </row>
   </sheetData>
@@ -18667,10 +18787,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B677BD20-64D3-A347-977A-A26CAB2BEE10}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C31"/>
+      <selection activeCell="A32" sqref="A32:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19013,6 +19133,61 @@
         <v>0</v>
       </c>
       <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>7.5</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>15</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
         <v>1</v>
       </c>
     </row>
@@ -19023,10 +19198,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A29162D-6491-3040-93F5-58F97AAC1E5D}">
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:C121"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="I128" sqref="I128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20359,6 +20534,61 @@
         <v>0</v>
       </c>
       <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>7.5</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>5</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>9</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>15</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>9</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
         <v>1</v>
       </c>
     </row>
@@ -20449,14 +20679,14 @@
         <v>1</v>
       </c>
       <c r="M2" s="1">
-        <f>L2/R$2</f>
+        <f t="shared" ref="M2:M10" si="0">L2/R$2</f>
         <v>0.02</v>
       </c>
       <c r="N2">
         <v>2</v>
       </c>
       <c r="O2">
-        <f>N2/R$2</f>
+        <f t="shared" ref="O2:O10" si="1">N2/R$2</f>
         <v>0.04</v>
       </c>
       <c r="P2">
@@ -20473,7 +20703,7 @@
         <v>1</v>
       </c>
       <c r="T2">
-        <f>H2</f>
+        <f t="shared" ref="T2:T10" si="2">H2</f>
         <v>-0.02</v>
       </c>
       <c r="U2">
@@ -20493,14 +20723,14 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B10" si="0">A3*H3</f>
+        <f t="shared" ref="B3:B10" si="3">A3*H3</f>
         <v>-0.2</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D64" si="1">B3/A3</f>
+        <f t="shared" ref="D3:D64" si="4">B3/A3</f>
         <v>-0.1</v>
       </c>
       <c r="F3">
@@ -20523,7 +20753,7 @@
         <v>4</v>
       </c>
       <c r="M3" s="1">
-        <f>L3/R$2</f>
+        <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
       <c r="N3">
@@ -20531,7 +20761,7 @@
         <v>5</v>
       </c>
       <c r="O3">
-        <f>N3/R$2</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="P3">
@@ -20539,18 +20769,18 @@
         <v>6</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q10" si="2">P3/R$2</f>
+        <f t="shared" ref="Q3:Q10" si="5">P3/R$2</f>
         <v>0.12</v>
       </c>
       <c r="S3">
         <v>1</v>
       </c>
       <c r="T3">
-        <f>H3</f>
+        <f t="shared" si="2"/>
         <v>-0.1</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U28" si="3">-1/T3</f>
+        <f t="shared" ref="U3:U28" si="6">-1/T3</f>
         <v>10</v>
       </c>
       <c r="AC3" t="s">
@@ -20564,7 +20794,7 @@
         <v>0.65</v>
       </c>
       <c r="AF3">
-        <f t="shared" ref="AF3:AF28" si="4">-1/AE3</f>
+        <f t="shared" ref="AF3:AF28" si="7">-1/AE3</f>
         <v>-1.5384615384615383</v>
       </c>
     </row>
@@ -20573,64 +20803,64 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.48000000000000004</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.24000000000000002</v>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H10" si="5">H3-$M4</f>
+        <f t="shared" ref="H4:H10" si="8">H3-$M4</f>
         <v>-0.24000000000000002</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I10" si="6">I3-$O4</f>
+        <f t="shared" ref="I4:I10" si="9">I3-$O4</f>
         <v>-0.30000000000000004</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J10" si="7">J3-$Q4</f>
+        <f t="shared" ref="J4:J10" si="10">J3-$Q4</f>
         <v>-0.36</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L10" si="8">L3+3</f>
+        <f t="shared" ref="L4:L10" si="11">L3+3</f>
         <v>7</v>
       </c>
       <c r="M4" s="1">
-        <f>L4/R$2</f>
+        <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N10" si="9">N3+3</f>
+        <f t="shared" ref="N4:N10" si="12">N3+3</f>
         <v>8</v>
       </c>
       <c r="O4">
-        <f>N4/R$2</f>
+        <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4:P10" si="10">P3+3</f>
+        <f t="shared" ref="P4:P10" si="13">P3+3</f>
         <v>9</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.18</v>
       </c>
       <c r="S4">
         <v>1</v>
       </c>
       <c r="T4">
-        <f>H4</f>
+        <f t="shared" si="2"/>
         <v>-0.24000000000000002</v>
       </c>
       <c r="U4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.1666666666666661</v>
       </c>
       <c r="AC4" t="s">
@@ -20640,11 +20870,11 @@
         <v>0.1</v>
       </c>
       <c r="AE4">
-        <f t="shared" ref="AE4:AE28" si="11">AE3+AD$3</f>
+        <f t="shared" ref="AE4:AE7" si="14">AE3+AD$3</f>
         <v>0.8</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.25</v>
       </c>
     </row>
@@ -20653,64 +20883,64 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.88000000000000012</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.44000000000000006</v>
       </c>
       <c r="F5">
         <v>7</v>
       </c>
       <c r="H5">
+        <f t="shared" si="8"/>
+        <v>-0.44000000000000006</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="9"/>
+        <v>-0.52</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>0.22</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="Q5">
         <f t="shared" si="5"/>
-        <v>-0.44000000000000006</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="6"/>
-        <v>-0.52</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="7"/>
-        <v>-0.6</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="M5" s="1">
-        <f>L5/R$2</f>
-        <v>0.2</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="O5">
-        <f>N5/R$2</f>
-        <v>0.22</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
       <c r="S5">
         <v>1</v>
       </c>
       <c r="T5">
-        <f>H5</f>
+        <f t="shared" si="2"/>
         <v>-0.44000000000000006</v>
       </c>
       <c r="U5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.2727272727272725</v>
       </c>
       <c r="AC5" t="s">
@@ -20720,11 +20950,11 @@
         <v>0.25</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.95000000000000007</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.0526315789473684</v>
       </c>
     </row>
@@ -20733,64 +20963,64 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1.4000000000000001</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.70000000000000007</v>
       </c>
       <c r="F6">
         <v>8</v>
       </c>
       <c r="H6">
+        <f t="shared" si="8"/>
+        <v>-0.70000000000000007</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="9"/>
+        <v>-0.8</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="10"/>
+        <v>-0.89999999999999991</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="Q6">
         <f t="shared" si="5"/>
-        <v>-0.70000000000000007</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="6"/>
-        <v>-0.8</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="7"/>
-        <v>-0.89999999999999991</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="8"/>
-        <v>13</v>
-      </c>
-      <c r="M6" s="1">
-        <f>L6/R$2</f>
-        <v>0.26</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="O6">
-        <f>N6/R$2</f>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="10"/>
-        <v>15</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
       <c r="S6">
         <v>1</v>
       </c>
       <c r="T6">
-        <f>H6</f>
+        <f t="shared" si="2"/>
         <v>-0.70000000000000007</v>
       </c>
       <c r="U6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4285714285714284</v>
       </c>
       <c r="AC6" t="s">
@@ -20800,11 +21030,11 @@
         <v>0.4</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.90909090909090906</v>
       </c>
     </row>
@@ -20813,72 +21043,72 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-2.04</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.02</v>
       </c>
       <c r="F7">
         <v>10</v>
       </c>
       <c r="H7">
+        <f t="shared" si="8"/>
+        <v>-1.02</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="9"/>
+        <v>-1.1400000000000001</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="10"/>
+        <v>-1.2599999999999998</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>0.34</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="5"/>
-        <v>-1.02</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="6"/>
-        <v>-1.1400000000000001</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="7"/>
-        <v>-1.2599999999999998</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="M7" s="1">
-        <f>L7/R$2</f>
-        <v>0.32</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="9"/>
-        <v>17</v>
-      </c>
-      <c r="O7">
-        <f>N7/R$2</f>
-        <v>0.34</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="10"/>
-        <v>18</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
       <c r="S7">
         <v>1</v>
       </c>
       <c r="T7">
-        <f>H7</f>
+        <f t="shared" si="2"/>
         <v>-1.02</v>
       </c>
       <c r="U7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.98039215686274506</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.25</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.8</v>
       </c>
     </row>
@@ -20887,64 +21117,64 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-2.8</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.4</v>
       </c>
       <c r="F8">
         <v>12</v>
       </c>
       <c r="H8">
+        <f t="shared" si="8"/>
+        <v>-1.4</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="9"/>
+        <v>-1.54</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="10"/>
+        <v>-1.6799999999999997</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.38</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="13"/>
+        <v>21</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="5"/>
-        <v>-1.4</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="6"/>
-        <v>-1.54</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="7"/>
-        <v>-1.6799999999999997</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="8"/>
-        <v>19</v>
-      </c>
-      <c r="M8" s="1">
-        <f>L8/R$2</f>
-        <v>0.38</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="O8">
-        <f>N8/R$2</f>
-        <v>0.4</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="10"/>
-        <v>21</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="2"/>
         <v>0.42</v>
       </c>
       <c r="S8">
         <v>1</v>
       </c>
       <c r="T8">
-        <f>H8</f>
+        <f t="shared" si="2"/>
         <v>-1.4</v>
       </c>
       <c r="U8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="AE8">
@@ -20952,7 +21182,7 @@
         <v>1.35</v>
       </c>
       <c r="AF8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.7407407407407407</v>
       </c>
     </row>
@@ -20961,69 +21191,69 @@
         <v>2</v>
       </c>
       <c r="B9">
+        <f t="shared" si="3"/>
+        <v>-3.6799999999999997</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="4"/>
+        <v>-1.8399999999999999</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="8"/>
+        <v>-1.8399999999999999</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="10"/>
+        <v>-2.1599999999999997</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="11"/>
+        <v>22</v>
+      </c>
+      <c r="M9" s="1">
         <f t="shared" si="0"/>
-        <v>-3.6799999999999997</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
+        <v>0.44</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="1"/>
-        <v>-1.8399999999999999</v>
-      </c>
-      <c r="H9">
+        <v>0.46</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="13"/>
+        <v>24</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="5"/>
-        <v>-1.8399999999999999</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="6"/>
-        <v>-2</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="7"/>
-        <v>-2.1599999999999997</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="8"/>
-        <v>22</v>
-      </c>
-      <c r="M9" s="1">
-        <f>L9/R$2</f>
-        <v>0.44</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="9"/>
-        <v>23</v>
-      </c>
-      <c r="O9">
-        <f>N9/R$2</f>
-        <v>0.46</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="10"/>
-        <v>24</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="2"/>
         <v>0.48</v>
       </c>
       <c r="S9">
         <v>1</v>
       </c>
       <c r="T9">
-        <f>H9</f>
+        <f t="shared" si="2"/>
         <v>-1.8399999999999999</v>
       </c>
       <c r="U9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.5434782608695653</v>
       </c>
       <c r="AE9">
-        <f t="shared" ref="AE9:AE15" si="12">AE8+AD$4</f>
+        <f t="shared" ref="AE9:AE15" si="15">AE8+AD$4</f>
         <v>1.4500000000000002</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.68965517241379304</v>
       </c>
     </row>
@@ -21032,69 +21262,69 @@
         <v>2</v>
       </c>
       <c r="B10">
+        <f t="shared" si="3"/>
+        <v>-4.68</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="4"/>
+        <v>-2.34</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="8"/>
+        <v>-2.34</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="9"/>
+        <v>-2.52</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="10"/>
+        <v>-2.6999999999999997</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="M10" s="1">
         <f t="shared" si="0"/>
-        <v>-4.68</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="O10">
         <f t="shared" si="1"/>
-        <v>-2.34</v>
-      </c>
-      <c r="H10">
+        <v>0.52</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="13"/>
+        <v>27</v>
+      </c>
+      <c r="Q10">
         <f t="shared" si="5"/>
-        <v>-2.34</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="6"/>
-        <v>-2.52</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="7"/>
-        <v>-2.6999999999999997</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="8"/>
-        <v>25</v>
-      </c>
-      <c r="M10" s="1">
-        <f>L10/R$2</f>
-        <v>0.5</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="9"/>
-        <v>26</v>
-      </c>
-      <c r="O10">
-        <f>N10/R$2</f>
-        <v>0.52</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="10"/>
-        <v>27</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
       <c r="S10">
         <v>1</v>
       </c>
       <c r="T10">
-        <f>H10</f>
+        <f t="shared" si="2"/>
         <v>-2.34</v>
       </c>
       <c r="U10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.42735042735042739</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5500000000000003</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.64516129032258052</v>
       </c>
     </row>
@@ -21103,33 +21333,33 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <f>A11*I2</f>
+        <f t="shared" ref="B11:B19" si="16">A11*I2</f>
         <v>-0.16</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.04</v>
       </c>
       <c r="S11">
         <v>1</v>
       </c>
       <c r="T11">
-        <f>I2</f>
+        <f t="shared" ref="T11:T19" si="17">I2</f>
         <v>-0.04</v>
       </c>
       <c r="U11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.6500000000000004</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.60606060606060597</v>
       </c>
     </row>
@@ -21138,33 +21368,33 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <f>A12*I3</f>
+        <f t="shared" si="16"/>
         <v>-0.56000000000000005</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.14000000000000001</v>
       </c>
       <c r="S12">
         <v>1</v>
       </c>
       <c r="T12">
-        <f>I3</f>
+        <f t="shared" si="17"/>
         <v>-0.14000000000000001</v>
       </c>
       <c r="U12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.1428571428571423</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.57142857142857129</v>
       </c>
     </row>
@@ -21173,33 +21403,33 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <f>A13*I4</f>
+        <f t="shared" si="16"/>
         <v>-1.2000000000000002</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.30000000000000004</v>
       </c>
       <c r="S13">
         <v>1</v>
       </c>
       <c r="T13">
-        <f>I4</f>
+        <f t="shared" si="17"/>
         <v>-0.30000000000000004</v>
       </c>
       <c r="U13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.333333333333333</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.8500000000000005</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.54054054054054035</v>
       </c>
     </row>
@@ -21208,33 +21438,33 @@
         <v>4</v>
       </c>
       <c r="B14">
-        <f>A14*I5</f>
+        <f t="shared" si="16"/>
         <v>-2.08</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.52</v>
       </c>
       <c r="S14">
         <v>1</v>
       </c>
       <c r="T14">
-        <f>I5</f>
+        <f t="shared" si="17"/>
         <v>-0.52</v>
       </c>
       <c r="U14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.9230769230769229</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.9500000000000006</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.51282051282051266</v>
       </c>
     </row>
@@ -21243,33 +21473,33 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <f>A15*I6</f>
+        <f t="shared" si="16"/>
         <v>-3.2</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.8</v>
       </c>
       <c r="S15">
         <v>1</v>
       </c>
       <c r="T15">
-        <f>I6</f>
+        <f t="shared" si="17"/>
         <v>-0.8</v>
       </c>
       <c r="U15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.25</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2.0500000000000007</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.48780487804878031</v>
       </c>
     </row>
@@ -21278,33 +21508,33 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <f>A16*I7</f>
+        <f t="shared" si="16"/>
         <v>-4.5600000000000005</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.1400000000000001</v>
       </c>
       <c r="S16">
         <v>1</v>
       </c>
       <c r="T16">
-        <f>I7</f>
+        <f t="shared" si="17"/>
         <v>-1.1400000000000001</v>
       </c>
       <c r="U16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.8771929824561403</v>
       </c>
       <c r="AE16">
-        <f t="shared" ref="AE11:AE20" si="13">AE15+AD$4</f>
+        <f t="shared" ref="AE16:AE18" si="18">AE15+AD$4</f>
         <v>2.1500000000000008</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.46511627906976727</v>
       </c>
     </row>
@@ -21313,33 +21543,33 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <f>A17*I8</f>
+        <f t="shared" si="16"/>
         <v>-6.16</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.54</v>
       </c>
       <c r="S17">
         <v>1</v>
       </c>
       <c r="T17">
-        <f>I8</f>
+        <f t="shared" si="17"/>
         <v>-1.54</v>
       </c>
       <c r="U17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.64935064935064934</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2.2500000000000009</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.44444444444444425</v>
       </c>
     </row>
@@ -21348,33 +21578,33 @@
         <v>4</v>
       </c>
       <c r="B18">
-        <f>A18*I9</f>
+        <f t="shared" si="16"/>
         <v>-8</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="S18">
         <v>1</v>
       </c>
       <c r="T18">
-        <f>I9</f>
+        <f t="shared" si="17"/>
         <v>-2</v>
       </c>
       <c r="U18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="AE18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2.350000000000001</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.42553191489361686</v>
       </c>
     </row>
@@ -21383,25 +21613,25 @@
         <v>4</v>
       </c>
       <c r="B19">
-        <f>A19*I10</f>
+        <f t="shared" si="16"/>
         <v>-10.08</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.52</v>
       </c>
       <c r="S19">
         <v>1</v>
       </c>
       <c r="T19">
-        <f>I10</f>
+        <f t="shared" si="17"/>
         <v>-2.52</v>
       </c>
       <c r="U19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.3968253968253968</v>
       </c>
       <c r="AE19">
@@ -21409,7 +21639,7 @@
         <v>2.4500000000000011</v>
       </c>
       <c r="AF19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.40816326530612229</v>
       </c>
     </row>
@@ -21418,33 +21648,33 @@
         <v>5</v>
       </c>
       <c r="B20">
-        <f>A20*J2</f>
+        <f t="shared" ref="B20:B28" si="19">A20*J2</f>
         <v>-0.3</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.06</v>
       </c>
       <c r="S20">
         <v>1</v>
       </c>
       <c r="T20">
-        <f>J2</f>
+        <f t="shared" ref="T20:T28" si="20">J2</f>
         <v>-0.06</v>
       </c>
       <c r="U20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16.666666666666668</v>
       </c>
       <c r="AE20">
-        <f t="shared" ref="AE20:AE21" si="14">AE19+AD$5</f>
+        <f t="shared" ref="AE20:AE21" si="21">AE19+AD$5</f>
         <v>2.7000000000000011</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.37037037037037024</v>
       </c>
     </row>
@@ -21453,33 +21683,33 @@
         <v>5</v>
       </c>
       <c r="B21">
-        <f>A21*J3</f>
+        <f t="shared" si="19"/>
         <v>-0.89999999999999991</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.18</v>
       </c>
       <c r="S21">
         <v>1</v>
       </c>
       <c r="T21">
-        <f>J3</f>
+        <f t="shared" si="20"/>
         <v>-0.18</v>
       </c>
       <c r="U21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.5555555555555554</v>
       </c>
       <c r="AE21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>2.9500000000000011</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.3389830508474575</v>
       </c>
     </row>
@@ -21488,25 +21718,25 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <f>A22*J4</f>
+        <f t="shared" si="19"/>
         <v>-1.7999999999999998</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.36</v>
       </c>
       <c r="S22">
         <v>1</v>
       </c>
       <c r="T22">
-        <f>J4</f>
+        <f t="shared" si="20"/>
         <v>-0.36</v>
       </c>
       <c r="U22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.7777777777777777</v>
       </c>
       <c r="AE22">
@@ -21514,7 +21744,7 @@
         <v>3.2000000000000011</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.31249999999999989</v>
       </c>
     </row>
@@ -21523,33 +21753,33 @@
         <v>5</v>
       </c>
       <c r="B23">
-        <f>A23*J5</f>
+        <f t="shared" si="19"/>
         <v>-3</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
       <c r="S23">
         <v>1</v>
       </c>
       <c r="T23">
-        <f>J5</f>
+        <f t="shared" si="20"/>
         <v>-0.6</v>
       </c>
       <c r="U23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="AE23">
-        <f t="shared" ref="AE23:AE28" si="15">AE22+AD$5</f>
+        <f t="shared" ref="AE23:AE24" si="22">AE22+AD$5</f>
         <v>3.4500000000000011</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.28985507246376802</v>
       </c>
     </row>
@@ -21558,33 +21788,33 @@
         <v>5</v>
       </c>
       <c r="B24">
-        <f>A24*J6</f>
+        <f t="shared" si="19"/>
         <v>-4.5</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.9</v>
       </c>
       <c r="S24">
         <v>1</v>
       </c>
       <c r="T24">
-        <f>J6</f>
+        <f t="shared" si="20"/>
         <v>-0.89999999999999991</v>
       </c>
       <c r="U24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1111111111111112</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>3.7000000000000011</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.27027027027027017</v>
       </c>
     </row>
@@ -21593,25 +21823,25 @@
         <v>5</v>
       </c>
       <c r="B25">
-        <f>A25*J7</f>
+        <f t="shared" si="19"/>
         <v>-6.2999999999999989</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.2599999999999998</v>
       </c>
       <c r="S25">
         <v>1</v>
       </c>
       <c r="T25">
-        <f>J7</f>
+        <f t="shared" si="20"/>
         <v>-1.2599999999999998</v>
       </c>
       <c r="U25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.79365079365079383</v>
       </c>
       <c r="AE25">
@@ -21619,7 +21849,7 @@
         <v>4.1000000000000014</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.24390243902439016</v>
       </c>
     </row>
@@ -21628,33 +21858,33 @@
         <v>5</v>
       </c>
       <c r="B26">
-        <f>A26*J8</f>
+        <f t="shared" si="19"/>
         <v>-8.3999999999999986</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.6799999999999997</v>
       </c>
       <c r="S26">
         <v>1</v>
       </c>
       <c r="T26">
-        <f>J8</f>
+        <f t="shared" si="20"/>
         <v>-1.6799999999999997</v>
       </c>
       <c r="U26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.59523809523809534</v>
       </c>
       <c r="AE26">
-        <f t="shared" ref="AE26:AE28" si="16">AE25+AD$6</f>
+        <f t="shared" ref="AE26:AE28" si="23">AE25+AD$6</f>
         <v>4.5000000000000018</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.22222222222222213</v>
       </c>
     </row>
@@ -21663,33 +21893,33 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <f>A27*J9</f>
+        <f t="shared" si="19"/>
         <v>-10.799999999999999</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.1599999999999997</v>
       </c>
       <c r="S27">
         <v>1</v>
       </c>
       <c r="T27">
-        <f>J9</f>
+        <f t="shared" si="20"/>
         <v>-2.1599999999999997</v>
       </c>
       <c r="U27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.46296296296296302</v>
       </c>
       <c r="AE27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>4.9000000000000021</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.20408163265306115</v>
       </c>
     </row>
@@ -21698,33 +21928,33 @@
         <v>5</v>
       </c>
       <c r="B28">
-        <f>A28*J10</f>
+        <f t="shared" si="19"/>
         <v>-13.499999999999998</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.6999999999999997</v>
       </c>
       <c r="S28">
         <v>1</v>
       </c>
       <c r="T28">
-        <f>J10</f>
+        <f t="shared" si="20"/>
         <v>-2.6999999999999997</v>
       </c>
       <c r="U28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.37037037037037041</v>
       </c>
       <c r="AE28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>5.3000000000000025</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.18867924528301877</v>
       </c>
     </row>
@@ -21740,7 +21970,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.02</v>
       </c>
     </row>
@@ -21749,14 +21979,14 @@
         <v>7</v>
       </c>
       <c r="B30">
-        <f t="shared" ref="B30:B37" si="17">A30*H3</f>
+        <f t="shared" ref="B30:B37" si="24">A30*H3</f>
         <v>-0.70000000000000007</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.1</v>
       </c>
       <c r="U30">
@@ -21769,14 +21999,14 @@
         <v>7</v>
       </c>
       <c r="B31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-1.6800000000000002</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.24000000000000002</v>
       </c>
       <c r="U31">
@@ -21789,14 +22019,14 @@
         <v>7</v>
       </c>
       <c r="B32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-3.0800000000000005</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.44000000000000006</v>
       </c>
     </row>
@@ -21805,14 +22035,14 @@
         <v>7</v>
       </c>
       <c r="B33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-4.9000000000000004</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.70000000000000007</v>
       </c>
     </row>
@@ -21821,14 +22051,14 @@
         <v>7</v>
       </c>
       <c r="B34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-7.1400000000000006</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.02</v>
       </c>
     </row>
@@ -21837,14 +22067,14 @@
         <v>7</v>
       </c>
       <c r="B35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-9.7999999999999989</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.4</v>
       </c>
     </row>
@@ -21853,14 +22083,14 @@
         <v>7</v>
       </c>
       <c r="B36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-12.879999999999999</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.8399999999999999</v>
       </c>
     </row>
@@ -21869,14 +22099,14 @@
         <v>7</v>
       </c>
       <c r="B37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>-16.38</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.34</v>
       </c>
     </row>
@@ -21892,7 +22122,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.04</v>
       </c>
     </row>
@@ -21901,14 +22131,14 @@
         <v>8</v>
       </c>
       <c r="B39">
-        <f t="shared" ref="B39:B46" si="18">A39*I3</f>
+        <f t="shared" ref="B39:B46" si="25">A39*I3</f>
         <v>-1.1200000000000001</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.14000000000000001</v>
       </c>
     </row>
@@ -21917,14 +22147,14 @@
         <v>8</v>
       </c>
       <c r="B40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-2.4000000000000004</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.30000000000000004</v>
       </c>
     </row>
@@ -21933,14 +22163,14 @@
         <v>8</v>
       </c>
       <c r="B41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-4.16</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.52</v>
       </c>
     </row>
@@ -21949,14 +22179,14 @@
         <v>8</v>
       </c>
       <c r="B42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-6.4</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.8</v>
       </c>
     </row>
@@ -21965,14 +22195,14 @@
         <v>8</v>
       </c>
       <c r="B43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-9.120000000000001</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.1400000000000001</v>
       </c>
     </row>
@@ -21981,14 +22211,14 @@
         <v>8</v>
       </c>
       <c r="B44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-12.32</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.54</v>
       </c>
     </row>
@@ -21997,14 +22227,14 @@
         <v>8</v>
       </c>
       <c r="B45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-16</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -22013,14 +22243,14 @@
         <v>8</v>
       </c>
       <c r="B46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>-20.16</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.52</v>
       </c>
     </row>
@@ -22036,7 +22266,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.06</v>
       </c>
     </row>
@@ -22045,14 +22275,14 @@
         <v>10</v>
       </c>
       <c r="B48">
-        <f t="shared" ref="B48:B55" si="19">A48*J3</f>
+        <f t="shared" ref="B48:B55" si="26">A48*J3</f>
         <v>-1.7999999999999998</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.18</v>
       </c>
     </row>
@@ -22061,14 +22291,14 @@
         <v>10</v>
       </c>
       <c r="B49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>-3.5999999999999996</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.36</v>
       </c>
     </row>
@@ -22077,14 +22307,14 @@
         <v>10</v>
       </c>
       <c r="B50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>-6</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
     </row>
@@ -22093,14 +22323,14 @@
         <v>10</v>
       </c>
       <c r="B51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>-9</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.9</v>
       </c>
     </row>
@@ -22109,14 +22339,14 @@
         <v>10</v>
       </c>
       <c r="B52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>-12.599999999999998</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.2599999999999998</v>
       </c>
     </row>
@@ -22125,14 +22355,14 @@
         <v>10</v>
       </c>
       <c r="B53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>-16.799999999999997</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.6799999999999997</v>
       </c>
     </row>
@@ -22141,14 +22371,14 @@
         <v>10</v>
       </c>
       <c r="B54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>-21.599999999999998</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.1599999999999997</v>
       </c>
     </row>
@@ -22157,14 +22387,14 @@
         <v>10</v>
       </c>
       <c r="B55">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>-26.999999999999996</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.6999999999999997</v>
       </c>
     </row>
@@ -22180,7 +22410,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.02</v>
       </c>
     </row>
@@ -22189,14 +22419,14 @@
         <v>12</v>
       </c>
       <c r="B57">
-        <f t="shared" ref="B57:B64" si="20">A57*H3</f>
+        <f t="shared" ref="B57:B64" si="27">A57*H3</f>
         <v>-1.2000000000000002</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.10000000000000002</v>
       </c>
     </row>
@@ -22205,14 +22435,14 @@
         <v>12</v>
       </c>
       <c r="B58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>-2.8800000000000003</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.24000000000000002</v>
       </c>
     </row>
@@ -22221,14 +22451,14 @@
         <v>12</v>
       </c>
       <c r="B59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>-5.2800000000000011</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.44000000000000011</v>
       </c>
     </row>
@@ -22237,14 +22467,14 @@
         <v>12</v>
       </c>
       <c r="B60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>-8.4</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.70000000000000007</v>
       </c>
     </row>
@@ -22253,14 +22483,14 @@
         <v>12</v>
       </c>
       <c r="B61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>-12.24</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.02</v>
       </c>
     </row>
@@ -22269,14 +22499,14 @@
         <v>12</v>
       </c>
       <c r="B62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>-16.799999999999997</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.3999999999999997</v>
       </c>
     </row>
@@ -22285,14 +22515,14 @@
         <v>12</v>
       </c>
       <c r="B63">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>-22.08</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.8399999999999999</v>
       </c>
     </row>
@@ -22301,14 +22531,14 @@
         <v>12</v>
       </c>
       <c r="B64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>-28.08</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.34</v>
       </c>
     </row>

--- a/choice_set/novel_choiceset_creation/initialchoiceset.xlsx
+++ b/choice_set/novel_choiceset_creation/initialchoiceset.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sokolhessner/Documents/gitrepos/clasedecisiontask/choice_set/novel_choiceset_creation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD5C274-72FA-BD4F-882B-BBBE24F5E67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE51065F-051E-B646-AEA9-5DFCD263A072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{39B1200C-5069-4046-B8A1-7519D24964A0}"/>
+    <workbookView xWindow="-35220" yWindow="-2700" windowWidth="20040" windowHeight="18440" activeTab="5" xr2:uid="{39B1200C-5069-4046-B8A1-7519D24964A0}"/>
   </bookViews>
   <sheets>
     <sheet name="GainLossGeneration" sheetId="2" r:id="rId1"/>
     <sheet name="GainLossChoices" sheetId="3" r:id="rId2"/>
     <sheet name="GainOnlyGeneration" sheetId="7" r:id="rId3"/>
     <sheet name="GainOnlyChoices" sheetId="5" r:id="rId4"/>
-    <sheet name="Choiceset" sheetId="6" r:id="rId5"/>
-    <sheet name="Unused - Brainstorming" sheetId="1" r:id="rId6"/>
-    <sheet name="GainOnlyGeneration-OLD" sheetId="4" r:id="rId7"/>
+    <sheet name="CheckTrials" sheetId="8" r:id="rId5"/>
+    <sheet name="Choiceset" sheetId="6" r:id="rId6"/>
+    <sheet name="Unused - Brainstorming" sheetId="1" r:id="rId7"/>
+    <sheet name="GainOnlyGeneration-OLD" sheetId="4" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
   <si>
     <t>riskygain</t>
   </si>
@@ -165,7 +166,31 @@
     <t>rho = 0.75</t>
   </si>
   <si>
-    <t>CHECK (EV8)</t>
+    <t>ischecktrial</t>
+  </si>
+  <si>
+    <t>Correct action</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean(correct action) = </t>
+  </si>
+  <si>
+    <t>G/0 vs G</t>
+  </si>
+  <si>
+    <t>G/0 vs K</t>
+  </si>
+  <si>
+    <t>G/0 vs 0</t>
+  </si>
+  <si>
+    <t>0/-L vs 0</t>
+  </si>
+  <si>
+    <t>G/0 vs -L</t>
   </si>
 </sst>
 </file>
@@ -209,10 +234,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8785,12 +8814,6 @@
                 <c:pt idx="32">
                   <c:v>14.058874503045722</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>10.67</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8898,12 +8921,6 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>19.882250993908556</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>10.67</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19733,12 +19750,6 @@
           </cell>
         </row>
         <row r="2">
-          <cell r="D2">
-            <v>1</v>
-          </cell>
-          <cell r="E2">
-            <v>0.3</v>
-          </cell>
           <cell r="K2">
             <v>1.3245725663201053</v>
           </cell>
@@ -19747,12 +19758,6 @@
           </cell>
         </row>
         <row r="3">
-          <cell r="D3">
-            <v>1</v>
-          </cell>
-          <cell r="E3">
-            <v>0.45</v>
-          </cell>
           <cell r="K3">
             <v>4.8003963987539082</v>
           </cell>
@@ -19779,12 +19784,6 @@
           </cell>
         </row>
         <row r="4">
-          <cell r="D4">
-            <v>1</v>
-          </cell>
-          <cell r="E4">
-            <v>0.52</v>
-          </cell>
           <cell r="K4">
             <v>8.2868492060497125</v>
           </cell>
@@ -19811,12 +19810,6 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="D5">
-            <v>1</v>
-          </cell>
-          <cell r="E5">
-            <v>0.59000000000000008</v>
-          </cell>
           <cell r="K5">
             <v>3.0548467095754428</v>
           </cell>
@@ -19825,12 +19818,6 @@
           </cell>
         </row>
         <row r="6">
-          <cell r="D6">
-            <v>1</v>
-          </cell>
-          <cell r="E6">
-            <v>0.66000000000000014</v>
-          </cell>
           <cell r="K6">
             <v>6.5866817798438877</v>
           </cell>
@@ -19839,12 +19826,6 @@
           </cell>
         </row>
         <row r="7">
-          <cell r="D7">
-            <v>1</v>
-          </cell>
-          <cell r="E7">
-            <v>0.7300000000000002</v>
-          </cell>
           <cell r="K7">
             <v>10.470152945815027</v>
           </cell>
@@ -19853,12 +19834,6 @@
           </cell>
         </row>
         <row r="8">
-          <cell r="D8">
-            <v>1</v>
-          </cell>
-          <cell r="E8">
-            <v>0.75000000000000022</v>
-          </cell>
           <cell r="K8">
             <v>3.5399466721955375</v>
           </cell>
@@ -19879,12 +19854,6 @@
           </cell>
         </row>
         <row r="9">
-          <cell r="D9">
-            <v>1</v>
-          </cell>
-          <cell r="E9">
-            <v>0.77000000000000024</v>
-          </cell>
           <cell r="K9">
             <v>7.1747699857355434</v>
           </cell>
@@ -19905,12 +19874,6 @@
           </cell>
         </row>
         <row r="10">
-          <cell r="D10">
-            <v>1</v>
-          </cell>
-          <cell r="E10">
-            <v>0.79000000000000026</v>
-          </cell>
           <cell r="K10">
             <v>10.897591219984909</v>
           </cell>
@@ -19919,12 +19882,6 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="D11">
-            <v>1</v>
-          </cell>
-          <cell r="E11">
-            <v>0.81000000000000028</v>
-          </cell>
           <cell r="K11">
             <v>3.6755343117967909</v>
           </cell>
@@ -19933,12 +19890,6 @@
           </cell>
         </row>
         <row r="12">
-          <cell r="D12">
-            <v>1</v>
-          </cell>
-          <cell r="E12">
-            <v>0.83000000000000029</v>
-          </cell>
           <cell r="K12">
             <v>7.4330722862473708</v>
           </cell>
@@ -19947,12 +19898,6 @@
           </cell>
         </row>
         <row r="13">
-          <cell r="D13">
-            <v>1</v>
-          </cell>
-          <cell r="E13">
-            <v>0.85000000000000031</v>
-          </cell>
           <cell r="K13">
             <v>11.266993177883396</v>
           </cell>
@@ -19961,12 +19906,6 @@
           </cell>
         </row>
         <row r="14">
-          <cell r="D14">
-            <v>1</v>
-          </cell>
-          <cell r="E14">
-            <v>0.87000000000000033</v>
-          </cell>
           <cell r="K14">
             <v>3.7930375497202666</v>
           </cell>
@@ -19975,12 +19914,6 @@
           </cell>
         </row>
         <row r="15">
-          <cell r="D15">
-            <v>1</v>
-          </cell>
-          <cell r="E15">
-            <v>0.89000000000000035</v>
-          </cell>
           <cell r="K15">
             <v>7.6575299277277136</v>
           </cell>
@@ -19989,12 +19922,6 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="D16">
-            <v>1</v>
-          </cell>
-          <cell r="E16">
-            <v>0.91000000000000036</v>
-          </cell>
           <cell r="K16">
             <v>11.588842900200255</v>
           </cell>
@@ -20003,12 +19930,6 @@
           </cell>
         </row>
         <row r="17">
-          <cell r="D17">
-            <v>1</v>
-          </cell>
-          <cell r="E17">
-            <v>0.93000000000000038</v>
-          </cell>
           <cell r="K17">
             <v>3.8956789251829504</v>
           </cell>
@@ -20017,12 +19938,6 @@
           </cell>
         </row>
         <row r="18">
-          <cell r="D18">
-            <v>1</v>
-          </cell>
-          <cell r="E18">
-            <v>0.9500000000000004</v>
-          </cell>
           <cell r="K18">
             <v>7.8540904599382921</v>
           </cell>
@@ -20031,12 +19946,6 @@
           </cell>
         </row>
         <row r="19">
-          <cell r="D19">
-            <v>1</v>
-          </cell>
-          <cell r="E19">
-            <v>0.97000000000000042</v>
-          </cell>
           <cell r="K19">
             <v>11.871379675778956</v>
           </cell>
@@ -20045,12 +19954,6 @@
           </cell>
         </row>
         <row r="20">
-          <cell r="D20">
-            <v>1</v>
-          </cell>
-          <cell r="E20">
-            <v>0.99000000000000044</v>
-          </cell>
           <cell r="K20">
             <v>3.9859970838581726</v>
           </cell>
@@ -20059,12 +19962,6 @@
           </cell>
         </row>
         <row r="21">
-          <cell r="D21">
-            <v>1</v>
-          </cell>
-          <cell r="E21">
-            <v>1.0100000000000005</v>
-          </cell>
           <cell r="K21">
             <v>8.0274512657445491</v>
           </cell>
@@ -20073,12 +19970,6 @@
           </cell>
         </row>
         <row r="22">
-          <cell r="D22">
-            <v>1</v>
-          </cell>
-          <cell r="E22">
-            <v>1.0300000000000005</v>
-          </cell>
           <cell r="K22">
             <v>12.121128402834856</v>
           </cell>
@@ -20087,12 +19978,6 @@
           </cell>
         </row>
         <row r="23">
-          <cell r="D23">
-            <v>1</v>
-          </cell>
-          <cell r="E23">
-            <v>1.0500000000000005</v>
-          </cell>
           <cell r="K23">
             <v>4.0660080245320716</v>
           </cell>
@@ -20101,12 +19986,6 @@
           </cell>
         </row>
         <row r="24">
-          <cell r="D24">
-            <v>1</v>
-          </cell>
-          <cell r="E24">
-            <v>1.0700000000000005</v>
-          </cell>
           <cell r="K24">
             <v>8.1813532341115334</v>
           </cell>
@@ -20115,12 +19994,6 @@
           </cell>
         </row>
         <row r="25">
-          <cell r="D25">
-            <v>1</v>
-          </cell>
-          <cell r="E25">
-            <v>1.0900000000000005</v>
-          </cell>
           <cell r="K25">
             <v>12.3433003133387</v>
           </cell>
@@ -20129,12 +20002,6 @@
           </cell>
         </row>
         <row r="26">
-          <cell r="D26">
-            <v>1</v>
-          </cell>
-          <cell r="E26">
-            <v>1.1100000000000005</v>
-          </cell>
           <cell r="K26">
             <v>4.1373265302767743</v>
           </cell>
@@ -20143,12 +20010,6 @@
           </cell>
         </row>
         <row r="27">
-          <cell r="D27">
-            <v>1</v>
-          </cell>
-          <cell r="E27">
-            <v>1.1800000000000006</v>
-          </cell>
           <cell r="K27">
             <v>8.4225436751491785</v>
           </cell>
@@ -20157,12 +20018,6 @@
           </cell>
         </row>
         <row r="28">
-          <cell r="D28">
-            <v>1</v>
-          </cell>
-          <cell r="E28">
-            <v>1.2500000000000007</v>
-          </cell>
           <cell r="K28">
             <v>12.830447073138327</v>
           </cell>
@@ -20171,12 +20026,6 @@
           </cell>
         </row>
         <row r="29">
-          <cell r="D29">
-            <v>1</v>
-          </cell>
-          <cell r="E29">
-            <v>1.3200000000000007</v>
-          </cell>
           <cell r="K29">
             <v>4.3352828111182324</v>
           </cell>
@@ -20185,12 +20034,6 @@
           </cell>
         </row>
         <row r="30">
-          <cell r="D30">
-            <v>1</v>
-          </cell>
-          <cell r="E30">
-            <v>1.3900000000000008</v>
-          </cell>
           <cell r="K30">
             <v>8.7754779049948066</v>
           </cell>
@@ -20199,12 +20042,6 @@
           </cell>
         </row>
         <row r="31">
-          <cell r="D31">
-            <v>1</v>
-          </cell>
-          <cell r="E31">
-            <v>1.4600000000000009</v>
-          </cell>
           <cell r="K31">
             <v>13.305149861130269</v>
           </cell>
@@ -20213,12 +20050,6 @@
           </cell>
         </row>
         <row r="32">
-          <cell r="D32">
-            <v>1</v>
-          </cell>
-          <cell r="E32">
-            <v>1.5300000000000009</v>
-          </cell>
           <cell r="K32">
             <v>4.4779256756613046</v>
           </cell>
@@ -20227,12 +20058,6 @@
           </cell>
         </row>
         <row r="33">
-          <cell r="D33">
-            <v>1</v>
-          </cell>
-          <cell r="E33">
-            <v>1.7</v>
-          </cell>
           <cell r="K33">
             <v>9.1339667819546229</v>
           </cell>
@@ -20241,12 +20066,6 @@
           </cell>
         </row>
         <row r="34">
-          <cell r="D34">
-            <v>1</v>
-          </cell>
-          <cell r="E34">
-            <v>2</v>
-          </cell>
           <cell r="K34">
             <v>14.058874503045722</v>
           </cell>
@@ -22326,7 +22145,7 @@
   <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23339,10 +23158,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358B0201-D1F1-D547-ABFD-35AD00818578}">
-  <dimension ref="A1:U36"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23393,7 +23212,7 @@
         <v>4</v>
       </c>
       <c r="K2">
-        <f>((4*J2)*(0.5^(1/E2)))/(1 + 2*(0.5^(1/E2)))</f>
+        <f t="shared" ref="K2:K34" si="0">((4*J2)*(0.5^(1/E2)))/(1 + 2*(0.5^(1/E2)))</f>
         <v>1.3245725663201053</v>
       </c>
       <c r="L2">
@@ -23436,11 +23255,11 @@
         <v>8</v>
       </c>
       <c r="K3">
-        <f>((4*J3)*(0.5^(1/E3)))/(1 + 2*(0.5^(1/E3)))</f>
+        <f t="shared" si="0"/>
         <v>4.8003963987539082</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L34" si="0">J3*4-2*K3</f>
+        <f t="shared" ref="L3:L34" si="1">J3*4-2*K3</f>
         <v>22.399207202492185</v>
       </c>
       <c r="N3">
@@ -23480,11 +23299,11 @@
         <v>12</v>
       </c>
       <c r="K4">
-        <f>((4*J4)*(0.5^(1/E4)))/(1 + 2*(0.5^(1/E4)))</f>
+        <f t="shared" si="0"/>
         <v>8.2868492060497125</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31.426301587900575</v>
       </c>
       <c r="N4">
@@ -23520,11 +23339,11 @@
         <v>4</v>
       </c>
       <c r="K5">
-        <f>((4*J5)*(0.5^(1/E5)))/(1 + 2*(0.5^(1/E5)))</f>
+        <f t="shared" si="0"/>
         <v>3.0548467095754428</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.8903065808491135</v>
       </c>
     </row>
@@ -23540,11 +23359,11 @@
         <v>8</v>
       </c>
       <c r="K6">
-        <f>((4*J6)*(0.5^(1/E6)))/(1 + 2*(0.5^(1/E6)))</f>
+        <f t="shared" si="0"/>
         <v>6.5866817798438877</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.826636440312225</v>
       </c>
       <c r="Q6">
@@ -23566,11 +23385,11 @@
         <v>12</v>
       </c>
       <c r="K7">
-        <f>((4*J7)*(0.5^(1/E7)))/(1 + 2*(0.5^(1/E7)))</f>
+        <f t="shared" si="0"/>
         <v>10.470152945815027</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27.059694108369946</v>
       </c>
       <c r="Q7" t="s">
@@ -23591,18 +23410,18 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <f>E7+B$3</f>
+        <f t="shared" ref="E8:E26" si="2">E7+B$3</f>
         <v>0.75000000000000022</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
       <c r="K8">
-        <f>((4*J8)*(0.5^(1/E8)))/(1 + 2*(0.5^(1/E8)))</f>
+        <f t="shared" si="0"/>
         <v>3.5399466721955375</v>
       </c>
       <c r="L8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.9201066556089259</v>
       </c>
       <c r="Q8">
@@ -23623,18 +23442,18 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <f>E8+B$3</f>
+        <f t="shared" si="2"/>
         <v>0.77000000000000024</v>
       </c>
       <c r="J9">
         <v>8</v>
       </c>
       <c r="K9">
-        <f>((4*J9)*(0.5^(1/E9)))/(1 + 2*(0.5^(1/E9)))</f>
+        <f t="shared" si="0"/>
         <v>7.1747699857355434</v>
       </c>
       <c r="L9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.650460028528911</v>
       </c>
       <c r="Q9">
@@ -23657,18 +23476,18 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <f>E9+B$3</f>
+        <f t="shared" si="2"/>
         <v>0.79000000000000026</v>
       </c>
       <c r="J10">
         <v>12</v>
       </c>
       <c r="K10">
-        <f>((4*J10)*(0.5^(1/E10)))/(1 + 2*(0.5^(1/E10)))</f>
+        <f t="shared" si="0"/>
         <v>10.897591219984909</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26.204817560030182</v>
       </c>
     </row>
@@ -23677,18 +23496,18 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f>E10+B$3</f>
+        <f t="shared" si="2"/>
         <v>0.81000000000000028</v>
       </c>
       <c r="J11">
         <v>4</v>
       </c>
       <c r="K11">
-        <f>((4*J11)*(0.5^(1/E11)))/(1 + 2*(0.5^(1/E11)))</f>
+        <f t="shared" si="0"/>
         <v>3.6755343117967909</v>
       </c>
       <c r="L11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.6489313764064182</v>
       </c>
     </row>
@@ -23697,18 +23516,18 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <f>E11+B$3</f>
+        <f t="shared" si="2"/>
         <v>0.83000000000000029</v>
       </c>
       <c r="J12">
         <v>8</v>
       </c>
       <c r="K12">
-        <f>((4*J12)*(0.5^(1/E12)))/(1 + 2*(0.5^(1/E12)))</f>
+        <f t="shared" si="0"/>
         <v>7.4330722862473708</v>
       </c>
       <c r="L12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.13385542750526</v>
       </c>
     </row>
@@ -23717,18 +23536,18 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <f>E12+B$3</f>
+        <f t="shared" si="2"/>
         <v>0.85000000000000031</v>
       </c>
       <c r="J13">
         <v>12</v>
       </c>
       <c r="K13">
-        <f>((4*J13)*(0.5^(1/E13)))/(1 + 2*(0.5^(1/E13)))</f>
+        <f t="shared" si="0"/>
         <v>11.266993177883396</v>
       </c>
       <c r="L13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25.466013644233207</v>
       </c>
     </row>
@@ -23737,18 +23556,18 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f>E13+B$3</f>
+        <f t="shared" si="2"/>
         <v>0.87000000000000033</v>
       </c>
       <c r="J14">
         <v>4</v>
       </c>
       <c r="K14">
-        <f>((4*J14)*(0.5^(1/E14)))/(1 + 2*(0.5^(1/E14)))</f>
+        <f t="shared" si="0"/>
         <v>3.7930375497202666</v>
       </c>
       <c r="L14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.4139249005594667</v>
       </c>
     </row>
@@ -23757,18 +23576,18 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <f>E14+B$3</f>
+        <f t="shared" si="2"/>
         <v>0.89000000000000035</v>
       </c>
       <c r="J15">
         <v>8</v>
       </c>
       <c r="K15">
-        <f>((4*J15)*(0.5^(1/E15)))/(1 + 2*(0.5^(1/E15)))</f>
+        <f t="shared" si="0"/>
         <v>7.6575299277277136</v>
       </c>
       <c r="L15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.684940144544573</v>
       </c>
     </row>
@@ -23777,18 +23596,18 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <f>E15+B$3</f>
+        <f t="shared" si="2"/>
         <v>0.91000000000000036</v>
       </c>
       <c r="J16">
         <v>12</v>
       </c>
       <c r="K16">
-        <f>((4*J16)*(0.5^(1/E16)))/(1 + 2*(0.5^(1/E16)))</f>
+        <f t="shared" si="0"/>
         <v>11.588842900200255</v>
       </c>
       <c r="L16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.822314199599489</v>
       </c>
     </row>
@@ -23797,18 +23616,18 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <f>E16+B$3</f>
+        <f t="shared" si="2"/>
         <v>0.93000000000000038</v>
       </c>
       <c r="J17">
         <v>4</v>
       </c>
       <c r="K17">
-        <f>((4*J17)*(0.5^(1/E17)))/(1 + 2*(0.5^(1/E17)))</f>
+        <f t="shared" si="0"/>
         <v>3.8956789251829504</v>
       </c>
       <c r="L17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.2086421496340982</v>
       </c>
     </row>
@@ -23817,18 +23636,18 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <f>E17+B$3</f>
+        <f t="shared" si="2"/>
         <v>0.9500000000000004</v>
       </c>
       <c r="J18">
         <v>8</v>
       </c>
       <c r="K18">
-        <f>((4*J18)*(0.5^(1/E18)))/(1 + 2*(0.5^(1/E18)))</f>
+        <f t="shared" si="0"/>
         <v>7.8540904599382921</v>
       </c>
       <c r="L18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.291819080123418</v>
       </c>
     </row>
@@ -23837,18 +23656,18 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <f>E18+B$3</f>
+        <f t="shared" si="2"/>
         <v>0.97000000000000042</v>
       </c>
       <c r="J19">
         <v>12</v>
       </c>
       <c r="K19">
-        <f>((4*J19)*(0.5^(1/E19)))/(1 + 2*(0.5^(1/E19)))</f>
+        <f t="shared" si="0"/>
         <v>11.871379675778956</v>
       </c>
       <c r="L19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.257240648442089</v>
       </c>
     </row>
@@ -23857,18 +23676,18 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <f>E19+B$3</f>
+        <f t="shared" si="2"/>
         <v>0.99000000000000044</v>
       </c>
       <c r="J20">
         <v>4</v>
       </c>
       <c r="K20">
-        <f>((4*J20)*(0.5^(1/E20)))/(1 + 2*(0.5^(1/E20)))</f>
+        <f t="shared" si="0"/>
         <v>3.9859970838581726</v>
       </c>
       <c r="L20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.0280058322836538</v>
       </c>
     </row>
@@ -23877,18 +23696,18 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <f>E20+B$3</f>
+        <f t="shared" si="2"/>
         <v>1.0100000000000005</v>
       </c>
       <c r="J21">
         <v>8</v>
       </c>
       <c r="K21">
-        <f>((4*J21)*(0.5^(1/E21)))/(1 + 2*(0.5^(1/E21)))</f>
+        <f t="shared" si="0"/>
         <v>8.0274512657445491</v>
       </c>
       <c r="L21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.945097468510902</v>
       </c>
     </row>
@@ -23897,18 +23716,18 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <f>E21+B$3</f>
+        <f t="shared" si="2"/>
         <v>1.0300000000000005</v>
       </c>
       <c r="J22">
         <v>12</v>
       </c>
       <c r="K22">
-        <f>((4*J22)*(0.5^(1/E22)))/(1 + 2*(0.5^(1/E22)))</f>
+        <f t="shared" si="0"/>
         <v>12.121128402834856</v>
       </c>
       <c r="L22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.757743194330288</v>
       </c>
     </row>
@@ -23917,18 +23736,18 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <f>E22+B$3</f>
+        <f t="shared" si="2"/>
         <v>1.0500000000000005</v>
       </c>
       <c r="J23">
         <v>4</v>
       </c>
       <c r="K23">
-        <f>((4*J23)*(0.5^(1/E23)))/(1 + 2*(0.5^(1/E23)))</f>
+        <f t="shared" si="0"/>
         <v>4.0660080245320716</v>
       </c>
       <c r="L23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.8679839509358569</v>
       </c>
     </row>
@@ -23937,18 +23756,18 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <f>E23+B$3</f>
+        <f t="shared" si="2"/>
         <v>1.0700000000000005</v>
       </c>
       <c r="J24">
         <v>8</v>
       </c>
       <c r="K24">
-        <f>((4*J24)*(0.5^(1/E24)))/(1 + 2*(0.5^(1/E24)))</f>
+        <f t="shared" si="0"/>
         <v>8.1813532341115334</v>
       </c>
       <c r="L24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.637293531776933</v>
       </c>
     </row>
@@ -23957,18 +23776,18 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <f>E24+B$3</f>
+        <f t="shared" si="2"/>
         <v>1.0900000000000005</v>
       </c>
       <c r="J25">
         <v>12</v>
       </c>
       <c r="K25">
-        <f>((4*J25)*(0.5^(1/E25)))/(1 + 2*(0.5^(1/E25)))</f>
+        <f t="shared" si="0"/>
         <v>12.3433003133387</v>
       </c>
       <c r="L25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.3133993733226</v>
       </c>
     </row>
@@ -23977,18 +23796,18 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <f>E25+B$3</f>
+        <f t="shared" si="2"/>
         <v>1.1100000000000005</v>
       </c>
       <c r="J26">
         <v>4</v>
       </c>
       <c r="K26">
-        <f>((4*J26)*(0.5^(1/E26)))/(1 + 2*(0.5^(1/E26)))</f>
+        <f t="shared" si="0"/>
         <v>4.1373265302767743</v>
       </c>
       <c r="L26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.7253469394464513</v>
       </c>
     </row>
@@ -23997,18 +23816,18 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <f>E26+B$4</f>
+        <f t="shared" ref="E27:E32" si="3">E26+B$4</f>
         <v>1.1800000000000006</v>
       </c>
       <c r="J27">
         <v>8</v>
       </c>
       <c r="K27">
-        <f>((4*J27)*(0.5^(1/E27)))/(1 + 2*(0.5^(1/E27)))</f>
+        <f t="shared" si="0"/>
         <v>8.4225436751491785</v>
       </c>
       <c r="L27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.154912649701643</v>
       </c>
     </row>
@@ -24017,18 +23836,18 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <f>E27+B$4</f>
+        <f t="shared" si="3"/>
         <v>1.2500000000000007</v>
       </c>
       <c r="J28">
         <v>12</v>
       </c>
       <c r="K28">
-        <f>((4*J28)*(0.5^(1/E28)))/(1 + 2*(0.5^(1/E28)))</f>
+        <f t="shared" si="0"/>
         <v>12.830447073138327</v>
       </c>
       <c r="L28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.339105853723346</v>
       </c>
     </row>
@@ -24037,18 +23856,18 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <f>E28+B$4</f>
+        <f t="shared" si="3"/>
         <v>1.3200000000000007</v>
       </c>
       <c r="J29">
         <v>4</v>
       </c>
       <c r="K29">
-        <f>((4*J29)*(0.5^(1/E29)))/(1 + 2*(0.5^(1/E29)))</f>
+        <f t="shared" si="0"/>
         <v>4.3352828111182324</v>
       </c>
       <c r="L29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.3294343777635351</v>
       </c>
     </row>
@@ -24057,18 +23876,18 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <f>E29+B$4</f>
+        <f t="shared" si="3"/>
         <v>1.3900000000000008</v>
       </c>
       <c r="J30">
         <v>8</v>
       </c>
       <c r="K30">
-        <f>((4*J30)*(0.5^(1/E30)))/(1 + 2*(0.5^(1/E30)))</f>
+        <f t="shared" si="0"/>
         <v>8.7754779049948066</v>
       </c>
       <c r="L30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.449044190010387</v>
       </c>
     </row>
@@ -24077,18 +23896,18 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <f>E30+B$4</f>
+        <f t="shared" si="3"/>
         <v>1.4600000000000009</v>
       </c>
       <c r="J31">
         <v>12</v>
       </c>
       <c r="K31">
-        <f>((4*J31)*(0.5^(1/E31)))/(1 + 2*(0.5^(1/E31)))</f>
+        <f t="shared" si="0"/>
         <v>13.305149861130269</v>
       </c>
       <c r="L31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.389700277739461</v>
       </c>
     </row>
@@ -24097,18 +23916,18 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <f>E31+B$4</f>
+        <f t="shared" si="3"/>
         <v>1.5300000000000009</v>
       </c>
       <c r="J32">
         <v>4</v>
       </c>
       <c r="K32">
-        <f>((4*J32)*(0.5^(1/E32)))/(1 + 2*(0.5^(1/E32)))</f>
+        <f t="shared" si="0"/>
         <v>4.4779256756613046</v>
       </c>
       <c r="L32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.0441486486773908</v>
       </c>
     </row>
@@ -24123,11 +23942,11 @@
         <v>8</v>
       </c>
       <c r="K33">
-        <f>((4*J33)*(0.5^(1/E33)))/(1 + 2*(0.5^(1/E33)))</f>
+        <f t="shared" si="0"/>
         <v>9.1339667819546229</v>
       </c>
       <c r="L33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.732066436090754</v>
       </c>
     </row>
@@ -24142,34 +23961,12 @@
         <v>12</v>
       </c>
       <c r="K34">
-        <f>((4*J34)*(0.5^(1/E34)))/(1 + 2*(0.5^(1/E34)))</f>
+        <f t="shared" si="0"/>
         <v>14.058874503045722</v>
       </c>
       <c r="L34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.882250993908556</v>
-      </c>
-    </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="J35" t="s">
-        <v>40</v>
-      </c>
-      <c r="K35">
-        <v>10.67</v>
-      </c>
-      <c r="L35">
-        <v>10.67</v>
-      </c>
-    </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="J36" t="s">
-        <v>40</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -24180,10 +23977,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B677BD20-64D3-A347-977A-A26CAB2BEE10}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C36"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24562,1427 +24359,345 @@
         <v>14.0588745</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>10.67</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>10.67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>32</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A29162D-6491-3040-93F5-58F97AAC1E5D}">
-  <dimension ref="A1:C126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D314F9-3770-B744-B5A0-C531D8D1B2DA}">
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C126"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5.34</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>5.34</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F3" si="0">(0.5*B2+0.5*C2+D2)/2</f>
+        <v>4.0049999999999999</v>
+      </c>
+      <c r="G2">
+        <f>IF(B2*0.5+C2*0.5 &gt; D2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>-4</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G13" si="1">IF(B3*0.5+C3*0.5 &gt; D3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>6.5</v>
+      </c>
+      <c r="F4">
+        <f>(0.5*B4+0.5*C4+D4)/2</f>
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>9.5</v>
+      </c>
+      <c r="F5">
+        <f>(0.5*B5+0.5*C5+D5)/2</f>
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>-3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>(0.5*B6+0.5*C6+D6)/2</f>
+        <v>-0.75</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>-8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>(0.5*B7+0.5*C7+D7)/2</f>
+        <v>-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>(0.5*B8+0.5*C8+D8)/2</f>
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <f>IF(B8*0.5+C8*0.5 &gt; D8,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>(0.5*B9+0.5*C9+D9)/2</f>
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <f>IF(B9*0.5+C9*0.5 &gt; D9,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>(0.5*B10+0.5*C10+D10)/2</f>
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <f>IF(B10*0.5+C10*0.5 &gt; D10,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4.55</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>-3</v>
+      </c>
+      <c r="F11">
+        <f>(0.5*B11+0.5*C11+D11)/2</f>
+        <v>-0.36250000000000004</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>-4.25</v>
+      </c>
+      <c r="F12">
+        <f>(0.5*B12+0.5*C12+D12)/2</f>
+        <v>0.625</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="F13">
+        <f>(0.5*B13+0.5*C13+D13)/2</f>
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>-2.2222222222222223</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>-1.8181818181818183</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>-1.5384615384615383</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>-1.333333333333333</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>-1.1764705882352939</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>-1.0526315789473681</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>-0.95238095238095211</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>-0.8695652173913041</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>-0.79999999999999971</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>-0.64516129032258052</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>-0.54054054054054046</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>-0.43478260869565222</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>-0.34482758620689663</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>-0.28571428571428581</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>-14</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>-7.7777777777777786</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>-6.3636363636363642</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>-5.3846153846153841</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>7</v>
-      </c>
-      <c r="B21">
-        <v>-4.6666666666666661</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>7</v>
-      </c>
-      <c r="B22">
-        <v>-4.117647058823529</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>7</v>
-      </c>
-      <c r="B23">
-        <v>-3.6842105263157885</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>7</v>
-      </c>
-      <c r="B24">
-        <v>-3.3333333333333321</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>7</v>
-      </c>
-      <c r="B25">
-        <v>-3.0434782608695645</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>7</v>
-      </c>
-      <c r="B26">
-        <v>-2.7999999999999989</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>7</v>
-      </c>
-      <c r="B27">
-        <v>-2.258064516129032</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>7</v>
-      </c>
-      <c r="B28">
-        <v>-1.8918918918918917</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>7</v>
-      </c>
-      <c r="B29">
-        <v>-1.5217391304347827</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>7</v>
-      </c>
-      <c r="B30">
-        <v>-1.2068965517241381</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>7</v>
-      </c>
-      <c r="B31">
-        <v>-1.0000000000000004</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>10</v>
-      </c>
-      <c r="B32">
-        <v>-20</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>10</v>
-      </c>
-      <c r="B33">
-        <v>-11.111111111111111</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>10</v>
-      </c>
-      <c r="B34">
-        <v>-9.0909090909090917</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>10</v>
-      </c>
-      <c r="B35">
-        <v>-7.6923076923076916</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>10</v>
-      </c>
-      <c r="B36">
-        <v>-6.6666666666666652</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>10</v>
-      </c>
-      <c r="B37">
-        <v>-5.8823529411764692</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>10</v>
-      </c>
-      <c r="B38">
-        <v>-5.2631578947368407</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>10</v>
-      </c>
-      <c r="B39">
-        <v>-4.761904761904761</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>10</v>
-      </c>
-      <c r="B40">
-        <v>-4.3478260869565206</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>10</v>
-      </c>
-      <c r="B41">
-        <v>-3.9999999999999987</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>10</v>
-      </c>
-      <c r="B42">
-        <v>-3.2258064516129026</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>10</v>
-      </c>
-      <c r="B43">
-        <v>-2.7027027027027022</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>10</v>
-      </c>
-      <c r="B44">
-        <v>-2.1739130434782612</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>10</v>
-      </c>
-      <c r="B45">
-        <v>-1.7241379310344831</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>10</v>
-      </c>
-      <c r="B46">
-        <v>-1.428571428571429</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>5</v>
-      </c>
-      <c r="B47">
-        <v>-7.1428571428571432</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>5</v>
-      </c>
-      <c r="B48">
-        <v>-5</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>5</v>
-      </c>
-      <c r="B49">
-        <v>-4.166666666666667</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>5</v>
-      </c>
-      <c r="B50">
-        <v>-3.5714285714285712</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>5</v>
-      </c>
-      <c r="B51">
-        <v>-3.1249999999999996</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>5</v>
-      </c>
-      <c r="B52">
-        <v>-2.7777777777777768</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>5</v>
-      </c>
-      <c r="B53">
-        <v>-2.4999999999999996</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>5</v>
-      </c>
-      <c r="B54">
-        <v>-2.272727272727272</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>5</v>
-      </c>
-      <c r="B55">
-        <v>-2.0833333333333326</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>5</v>
-      </c>
-      <c r="B56">
-        <v>-1.7857142857142851</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>5</v>
-      </c>
-      <c r="B57">
-        <v>-1.4705882352941173</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>5</v>
-      </c>
-      <c r="B58">
-        <v>-1.25</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>5</v>
-      </c>
-      <c r="B59">
-        <v>-0.96153846153846168</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>5</v>
-      </c>
-      <c r="B60">
-        <v>-0.78125000000000011</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>5</v>
-      </c>
-      <c r="B61">
-        <v>-0.5</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>8</v>
-      </c>
-      <c r="B62">
-        <v>-11.428571428571429</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>8</v>
-      </c>
-      <c r="B63">
-        <v>-8</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>8</v>
-      </c>
-      <c r="B64">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>8</v>
-      </c>
-      <c r="B65">
-        <v>-5.7142857142857135</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>8</v>
-      </c>
-      <c r="B66">
-        <v>-4.9999999999999991</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>8</v>
-      </c>
-      <c r="B67">
-        <v>-4.4444444444444429</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>8</v>
-      </c>
-      <c r="B68">
-        <v>-3.9999999999999991</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>8</v>
-      </c>
-      <c r="B69">
-        <v>-3.6363636363636354</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>8</v>
-      </c>
-      <c r="B70">
-        <v>-3.3333333333333321</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>8</v>
-      </c>
-      <c r="B71">
-        <v>-2.8571428571428563</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>8</v>
-      </c>
-      <c r="B72">
-        <v>-2.3529411764705879</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>8</v>
-      </c>
-      <c r="B73">
-        <v>-2</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>8</v>
-      </c>
-      <c r="B74">
-        <v>-1.5384615384615388</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>8</v>
-      </c>
-      <c r="B75">
-        <v>-1.2500000000000002</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>8</v>
-      </c>
-      <c r="B76">
-        <v>-0.8</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>12</v>
-      </c>
-      <c r="B77">
-        <v>-17.142857142857142</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>12</v>
-      </c>
-      <c r="B78">
-        <v>-12</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>12</v>
-      </c>
-      <c r="B79">
-        <v>-10</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>12</v>
-      </c>
-      <c r="B80">
-        <v>-8.5714285714285694</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>12</v>
-      </c>
-      <c r="B81">
-        <v>-7.4999999999999982</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>12</v>
-      </c>
-      <c r="B82">
-        <v>-6.6666666666666643</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>12</v>
-      </c>
-      <c r="B83">
-        <v>-5.9999999999999982</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>12</v>
-      </c>
-      <c r="B84">
-        <v>-5.4545454545454533</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>12</v>
-      </c>
-      <c r="B85">
-        <v>-4.9999999999999982</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>12</v>
-      </c>
-      <c r="B86">
-        <v>-4.2857142857142847</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>12</v>
-      </c>
-      <c r="B87">
-        <v>-3.5294117647058818</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>12</v>
-      </c>
-      <c r="B88">
-        <v>-3</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>12</v>
-      </c>
-      <c r="B89">
-        <v>-2.3076923076923084</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>12</v>
-      </c>
-      <c r="B90">
-        <v>-1.8750000000000004</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>12</v>
-      </c>
-      <c r="B91">
-        <v>-1.2000000000000002</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>13.3508549</v>
-      </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-      <c r="C92">
-        <v>1.3245725699999999</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>22.399207199999999</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="C93">
-        <v>4.8003964000000003</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>31.426301599999999</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94">
-        <v>8.2868492099999997</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>9.8903065800000007</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95">
-        <v>3.0548467100000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>18.826636400000002</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>6.5866817800000002</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>27.059694100000002</v>
-      </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-      <c r="C97">
-        <v>10.4701529</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>8.9201066600000001</v>
-      </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-      <c r="C98">
-        <v>3.53994667</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>17.650459999999999</v>
-      </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-      <c r="C99">
-        <v>7.1747699899999997</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>26.204817599999998</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <v>10.897591200000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>8.6489313800000005</v>
-      </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-      <c r="C101">
-        <v>3.6755343100000002</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>17.133855400000002</v>
-      </c>
-      <c r="B102">
-        <v>0</v>
-      </c>
-      <c r="C102">
-        <v>7.4330722900000001</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>25.4660136</v>
-      </c>
-      <c r="B103">
-        <v>0</v>
-      </c>
-      <c r="C103">
-        <v>11.2669932</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>8.4139248999999996</v>
-      </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-      <c r="C104">
-        <v>3.7930375500000002</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>16.684940099999999</v>
-      </c>
-      <c r="B105">
-        <v>0</v>
-      </c>
-      <c r="C105">
-        <v>7.6575299299999999</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>24.822314200000001</v>
-      </c>
-      <c r="B106">
-        <v>0</v>
-      </c>
-      <c r="C106">
-        <v>11.5888429</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>8.2086421499999993</v>
-      </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-      <c r="C107">
-        <v>3.8956789299999999</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>16.291819100000001</v>
-      </c>
-      <c r="B108">
-        <v>0</v>
-      </c>
-      <c r="C108">
-        <v>7.8540904600000001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>24.257240599999999</v>
-      </c>
-      <c r="B109">
-        <v>0</v>
-      </c>
-      <c r="C109">
-        <v>11.8713797</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>8.0280058299999997</v>
-      </c>
-      <c r="B110">
-        <v>0</v>
-      </c>
-      <c r="C110">
-        <v>3.9859970800000002</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>15.945097499999999</v>
-      </c>
-      <c r="B111">
-        <v>0</v>
-      </c>
-      <c r="C111">
-        <v>8.0274512700000002</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>23.7577432</v>
-      </c>
-      <c r="B112">
-        <v>0</v>
-      </c>
-      <c r="C112">
-        <v>12.1211284</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>7.8679839500000002</v>
-      </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-      <c r="C113">
-        <v>4.0660080199999999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>15.6372935</v>
-      </c>
-      <c r="B114">
-        <v>0</v>
-      </c>
-      <c r="C114">
-        <v>8.1813532299999991</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>23.313399400000002</v>
-      </c>
-      <c r="B115">
-        <v>0</v>
-      </c>
-      <c r="C115">
-        <v>12.343300299999999</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>7.7253469399999997</v>
-      </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-      <c r="C116">
-        <v>4.1373265300000002</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>15.154912599999999</v>
-      </c>
-      <c r="B117">
-        <v>0</v>
-      </c>
-      <c r="C117">
-        <v>8.4225436800000004</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>22.3391059</v>
-      </c>
-      <c r="B118">
-        <v>0</v>
-      </c>
-      <c r="C118">
-        <v>12.830447100000001</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>7.3294343800000004</v>
-      </c>
-      <c r="B119">
-        <v>0</v>
-      </c>
-      <c r="C119">
-        <v>4.3352828099999998</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>14.449044199999999</v>
-      </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-      <c r="C120">
-        <v>8.7754779000000003</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>21.389700300000001</v>
-      </c>
-      <c r="B121">
-        <v>0</v>
-      </c>
-      <c r="C121">
-        <v>13.3051499</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>7.0441486500000003</v>
-      </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-      <c r="C122">
-        <v>4.4779256800000002</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>13.732066400000001</v>
-      </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-      <c r="C123">
-        <v>9.1339667799999997</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>19.882251</v>
-      </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-      <c r="C124">
-        <v>14.0588745</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>10.67</v>
-      </c>
-      <c r="B125">
-        <v>0</v>
-      </c>
-      <c r="C125">
-        <v>10.67</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>32</v>
-      </c>
-      <c r="B126">
-        <v>0</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15">
+        <f>AVERAGE(G2:G13)</f>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -25991,6 +24706,1925 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A29162D-6491-3040-93F5-58F97AAC1E5D}">
+  <dimension ref="A1:D136"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D136"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>-4</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>-2.2222222222222223</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>-1.8181818181818183</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>-1.5384615384615383</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>-1.1764705882352939</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>-1.0526315789473681</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>-0.95238095238095211</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>-0.8695652173913041</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>-0.79999999999999971</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>-0.64516129032258052</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>-0.54054054054054046</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>-0.43478260869565222</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>-0.34482758620689663</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>-0.28571428571428581</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>-14</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>-7.7777777777777786</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>-6.3636363636363642</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>-5.3846153846153841</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>-4.6666666666666661</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>-4.117647058823529</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>-3.6842105263157885</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>-3.3333333333333321</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>-3.0434782608695645</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>-2.7999999999999989</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>-2.258064516129032</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>-1.8918918918918917</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>-1.5217391304347827</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>-1.2068965517241381</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>-1.0000000000000004</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>-20</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>-11.111111111111111</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>-9.0909090909090917</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>-7.6923076923076916</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>-6.6666666666666652</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>-5.8823529411764692</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>-5.2631578947368407</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>-4.761904761904761</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>-4.3478260869565206</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>-3.9999999999999987</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>-3.2258064516129026</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>-2.7027027027027022</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>-2.1739130434782612</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <v>-1.7241379310344831</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>-1.428571428571429</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>-7.1428571428571432</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>-5</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>-4.166666666666667</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>-3.5714285714285712</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>-3.1249999999999996</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>-2.7777777777777768</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>-2.4999999999999996</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>-2.272727272727272</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>-2.0833333333333326</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>5</v>
+      </c>
+      <c r="B56">
+        <v>-1.7857142857142851</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <v>-1.4705882352941173</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>-1.25</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59">
+        <v>-0.96153846153846168</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>5</v>
+      </c>
+      <c r="B60">
+        <v>-0.78125000000000011</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="B61">
+        <v>-0.5</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>8</v>
+      </c>
+      <c r="B62">
+        <v>-11.428571428571429</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>-8</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>8</v>
+      </c>
+      <c r="B64">
+        <v>-6.666666666666667</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>8</v>
+      </c>
+      <c r="B65">
+        <v>-5.7142857142857135</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>-4.9999999999999991</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>8</v>
+      </c>
+      <c r="B67">
+        <v>-4.4444444444444429</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>8</v>
+      </c>
+      <c r="B68">
+        <v>-3.9999999999999991</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>8</v>
+      </c>
+      <c r="B69">
+        <v>-3.6363636363636354</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>8</v>
+      </c>
+      <c r="B70">
+        <v>-3.3333333333333321</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>8</v>
+      </c>
+      <c r="B71">
+        <v>-2.8571428571428563</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>8</v>
+      </c>
+      <c r="B72">
+        <v>-2.3529411764705879</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <v>-2</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>8</v>
+      </c>
+      <c r="B74">
+        <v>-1.5384615384615388</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>8</v>
+      </c>
+      <c r="B75">
+        <v>-1.2500000000000002</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>8</v>
+      </c>
+      <c r="B76">
+        <v>-0.8</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>12</v>
+      </c>
+      <c r="B77">
+        <v>-17.142857142857142</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>12</v>
+      </c>
+      <c r="B78">
+        <v>-12</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>12</v>
+      </c>
+      <c r="B79">
+        <v>-10</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>12</v>
+      </c>
+      <c r="B80">
+        <v>-8.5714285714285694</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>12</v>
+      </c>
+      <c r="B81">
+        <v>-7.4999999999999982</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>12</v>
+      </c>
+      <c r="B82">
+        <v>-6.6666666666666643</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>12</v>
+      </c>
+      <c r="B83">
+        <v>-5.9999999999999982</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>12</v>
+      </c>
+      <c r="B84">
+        <v>-5.4545454545454533</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>12</v>
+      </c>
+      <c r="B85">
+        <v>-4.9999999999999982</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>12</v>
+      </c>
+      <c r="B86">
+        <v>-4.2857142857142847</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>12</v>
+      </c>
+      <c r="B87">
+        <v>-3.5294117647058818</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>12</v>
+      </c>
+      <c r="B88">
+        <v>-3</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>12</v>
+      </c>
+      <c r="B89">
+        <v>-2.3076923076923084</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>12</v>
+      </c>
+      <c r="B90">
+        <v>-1.8750000000000004</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>12</v>
+      </c>
+      <c r="B91">
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>13.3508549</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>1.3245725699999999</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>22.399207199999999</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>4.8003964000000003</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>31.426301599999999</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>8.2868492099999997</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>9.8903065800000007</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>3.0548467100000001</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>18.826636400000002</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>6.5866817800000002</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>27.059694100000002</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>10.4701529</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>8.9201066600000001</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>3.53994667</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>17.650459999999999</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>7.1747699899999997</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>26.204817599999998</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>10.897591200000001</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>8.6489313800000005</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>3.6755343100000002</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>17.133855400000002</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>7.4330722900000001</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>25.4660136</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>11.2669932</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>8.4139248999999996</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>3.7930375500000002</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>16.684940099999999</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>7.6575299299999999</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>24.822314200000001</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>11.5888429</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>8.2086421499999993</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>3.8956789299999999</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>16.291819100000001</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>7.8540904600000001</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>24.257240599999999</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>11.8713797</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>8.0280058299999997</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>3.9859970800000002</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>15.945097499999999</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>8.0274512700000002</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>23.7577432</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>12.1211284</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>7.8679839500000002</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>4.0660080199999999</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>15.6372935</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>8.1813532299999991</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>23.313399400000002</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>12.343300299999999</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>7.7253469399999997</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>4.1373265300000002</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>15.154912599999999</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>8.4225436800000004</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>22.3391059</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>12.830447100000001</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>7.3294343800000004</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>4.3352828099999998</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>14.449044199999999</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>8.7754779000000003</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>21.389700300000001</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>13.3051499</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>7.0441486500000003</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>4.4779256800000002</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>13.732066400000001</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>9.1339667799999997</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>19.882251</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>14.0588745</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>5.34</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>5.34</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>8</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>8</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>3</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>6.5</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>5</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>9.5</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>0</v>
+      </c>
+      <c r="B129">
+        <v>-3</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>0</v>
+      </c>
+      <c r="B130">
+        <v>-8</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>16</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>24</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>32</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>4.55</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>-3</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>11</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>-4.25</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>10</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>-1</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B10EB6D-193C-1243-A527-828C8848ED74}">
   <dimension ref="A1:AF64"/>
   <sheetViews>
@@ -27941,7 +28575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7129CBED-75FE-FE4F-BC90-69ECA6D16CC4}">
   <dimension ref="A1:R36"/>
   <sheetViews>
